--- a/data/information_data.xlsx
+++ b/data/information_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="706" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="706"/>
   </bookViews>
   <sheets>
     <sheet name="图片路径" sheetId="1" r:id="rId1"/>
@@ -21,27 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
-    <t>F:\test\testPicture\1.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图片路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\test\testPicture\2.jpeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\test\testPicture\3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\test\testPicture\5.jfif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\test\testPicture\4.gif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -203,6 +183,26 @@
   </si>
   <si>
     <t>admintest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_jianyuluntan/picture/1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_jianyuluntan/picture/2.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_jianyuluntan/picture/3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_jianyuluntan/picture/4.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_jianyuluntan/picture/5.jfif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,43 +562,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -618,17 +618,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -652,47 +652,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -716,22 +716,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="140" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -755,52 +755,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -813,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -826,79 +826,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/information_data.xlsx
+++ b/data/information_data.xlsx
@@ -186,23 +186,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_jianyuluntan/picture/1.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_jianyuluntan/picture/2.jpeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_jianyuluntan/picture/3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_jianyuluntan/picture/4.gif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_jianyuluntan/picture/5.jfif</t>
+    <t>/usr/local/picture/1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local/picture/2.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local/picture/3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local/picture/4.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local/picture/5.jfif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +563,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
